--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>406718.8852825844</v>
+        <v>336396.3048630666</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11391437.76547035</v>
+        <v>11512539.900382</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10676351.96705204</v>
+        <v>10361893.43952979</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8096213.398164082</v>
+        <v>8239106.155279132</v>
       </c>
     </row>
     <row r="11">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>138.2613113589524</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>91.6352764985534</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>278.0818333067227</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>339.1908267001861</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.3646350838579</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T12" t="n">
         <v>192.0665623188214</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092030868075</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>130.2807975769973</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>144.8586974472227</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>13.60776174434548</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>307.2136213496112</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.3387326418228</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>59.8995589511096</v>
       </c>
       <c r="C17" t="n">
-        <v>56.16180278495424</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54923767829332</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2019,10 +2019,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>67.22331801800635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>234.5956013770945</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>89.12985772078872</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>107.8378915074778</v>
       </c>
       <c r="H22" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I22" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>17.2153561009536</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>126.5986905549639</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>90.69811547110055</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>103.3387326418228</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.38269472954242</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>178.6301541879401</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.38899166021466</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>198.6076632291038</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>140.8406128224628</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.045250128462</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>106.5125558626488</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>67.71328032340972</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>122.7299563688819</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>85.77913548564688</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>95.85713835242333</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3237,19 +3237,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>134.2158014286935</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>91.12751618709144</v>
       </c>
       <c r="G35" t="n">
-        <v>193.1994278308467</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T36" t="n">
         <v>192.0665623188214</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>118.169212821623</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.7312730021081</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>155.4330894991476</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>130.250762672138</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>115.3013361984549</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>144.2554484570974</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>57.55474909755313</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>278.081833306724</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>55.94174219837129</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>79.41653965146595</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>220.7486959972119</v>
@@ -3957,16 +3957,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>300.2260400206193</v>
       </c>
       <c r="H44" t="n">
-        <v>195.9404637567435</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>80.3998726534394</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>122.9255358899393</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>204.4218319897906</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>154.6599372348737</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>722.9192922843287</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>533.4995072678437</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>344.0797222513587</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>154.6599372348737</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>154.6599372348737</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>154.6599372348737</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>154.6599372348737</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>330.580817908301</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>330.580817908301</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>330.580817908301</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>465.2530182692154</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>650.9033495638723</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>652.2303032981989</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>746.7254979846282</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>612.5614882768601</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>520.000602924786</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>520.000602924786</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>520.000602924786</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>330.580817908301</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>330.580817908301</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>330.580817908301</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>778.4750021151654</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="C11" t="n">
-        <v>409.5124851747536</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="D11" t="n">
-        <v>51.24678656800308</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="E11" t="n">
-        <v>51.24678656800308</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F11" t="n">
-        <v>51.24678656800308</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800308</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362815</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U11" t="n">
-        <v>2562.339328400154</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V11" t="n">
-        <v>2281.448587686293</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W11" t="n">
-        <v>1928.679932416179</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X11" t="n">
-        <v>1555.214174155099</v>
+        <v>1157.610520910266</v>
       </c>
       <c r="Y11" t="n">
-        <v>1165.074842179287</v>
+        <v>1157.610520910266</v>
       </c>
     </row>
     <row r="12">
@@ -5096,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G12" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>298.3188265310612</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L12" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M12" t="n">
-        <v>1209.253210781438</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.432194560476</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O12" t="n">
-        <v>2175.502629736638</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P12" t="n">
-        <v>2422.685363568935</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q12" t="n">
-        <v>2538.001278676481</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S12" t="n">
         <v>2426.617474780096</v>
@@ -5153,7 +5153,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
@@ -5162,7 +5162,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.683159487371</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C13" t="n">
-        <v>918.7469765594642</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D13" t="n">
-        <v>768.6303371471284</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E13" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F13" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G13" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K13" t="n">
         <v>248.4064713020475</v>
@@ -5223,28 +5223,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S13" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T13" t="n">
-        <v>1636.446120074497</v>
+        <v>1402.265948360789</v>
       </c>
       <c r="U13" t="n">
-        <v>1636.446120074497</v>
+        <v>1113.147610864627</v>
       </c>
       <c r="V13" t="n">
-        <v>1636.446120074497</v>
+        <v>858.4631226587398</v>
       </c>
       <c r="W13" t="n">
-        <v>1636.446120074497</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="X13" t="n">
-        <v>1490.124203461141</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y13" t="n">
-        <v>1269.331624317611</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1221.70230638237</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="C14" t="n">
-        <v>852.7397894419585</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D14" t="n">
-        <v>852.7397894419585</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E14" t="n">
-        <v>466.9515368437143</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F14" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H14" t="n">
         <v>51.24678656800311</v>
@@ -5314,16 +5314,16 @@
         <v>2308.758267664335</v>
       </c>
       <c r="V14" t="n">
-        <v>2308.758267664335</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="W14" t="n">
-        <v>2308.758267664335</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="X14" t="n">
-        <v>1998.441478422304</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="Y14" t="n">
-        <v>1608.302146446492</v>
+        <v>2295.013053781158</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G15" t="n">
         <v>165.443278618252</v>
@@ -5357,25 +5357,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L15" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M15" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N15" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O15" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P15" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q15" t="n">
         <v>2538.001278676482</v>
@@ -5390,16 +5390,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.683159487371</v>
+        <v>155.6293447920665</v>
       </c>
       <c r="C16" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D16" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E16" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F16" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G16" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I16" t="n">
         <v>51.24678656800311</v>
@@ -5463,25 +5463,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U16" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V16" t="n">
-        <v>1636.446120074497</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W16" t="n">
-        <v>1636.446120074497</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X16" t="n">
-        <v>1490.124203461141</v>
+        <v>155.6293447920665</v>
       </c>
       <c r="Y16" t="n">
-        <v>1269.331624317611</v>
+        <v>155.6293447920665</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>934.6665353554979</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C17" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D17" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E17" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F17" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G17" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I17" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M17" t="n">
         <v>1220.470313923562</v>
@@ -5542,25 +5542,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T17" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U17" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V17" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W17" t="n">
-        <v>2084.871465656511</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X17" t="n">
-        <v>1711.405707395431</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y17" t="n">
-        <v>1321.26637541962</v>
+        <v>1373.778212738966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E18" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I18" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K18" t="n">
-        <v>482.9033490193029</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L18" t="n">
-        <v>777.6069060507746</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.868925009995</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.15405360694</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O18" t="n">
-        <v>1860.224488783102</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P18" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q18" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R18" t="n">
         <v>2562.339328400155</v>
@@ -5627,16 +5627,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V18" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.519478116707</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1087.683159487371</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="C19" t="n">
-        <v>918.7469765594642</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="D19" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E19" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F19" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G19" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H19" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I19" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q19" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S19" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T19" t="n">
-        <v>1337.23396574994</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U19" t="n">
-        <v>1337.23396574994</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V19" t="n">
-        <v>1337.23396574994</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W19" t="n">
-        <v>1337.23396574994</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X19" t="n">
-        <v>1337.23396574994</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y19" t="n">
-        <v>1269.331624317611</v>
+        <v>580.2476435302233</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.2769458819311</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C20" t="n">
-        <v>141.2769458819311</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D20" t="n">
-        <v>141.2769458819311</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E20" t="n">
-        <v>141.2769458819311</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F20" t="n">
-        <v>141.2769458819311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G20" t="n">
-        <v>141.2769458819311</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H20" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I20" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J20" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K20" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N20" t="n">
         <v>1656.671415230817</v>
@@ -5779,25 +5779,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T20" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U20" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V20" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W20" t="n">
-        <v>1291.481876182944</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X20" t="n">
-        <v>918.0161179218646</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y20" t="n">
-        <v>527.8767859460529</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I21" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J21" t="n">
         <v>113.5972052500113</v>
@@ -5837,16 +5837,16 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L21" t="n">
-        <v>777.6069060507741</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.868925009994</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.154053606939</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O21" t="n">
-        <v>1860.224488783101</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P21" t="n">
         <v>2422.685363568936</v>
@@ -5864,7 +5864,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V21" t="n">
         <v>1769.368633815395</v>
@@ -5873,7 +5873,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.519478116707</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.683159487371</v>
+        <v>606.9425808380922</v>
       </c>
       <c r="C22" t="n">
-        <v>918.7469765594642</v>
+        <v>606.9425808380922</v>
       </c>
       <c r="D22" t="n">
-        <v>768.6303371471284</v>
+        <v>456.8259414257565</v>
       </c>
       <c r="E22" t="n">
-        <v>620.7172435647353</v>
+        <v>308.9128478433634</v>
       </c>
       <c r="F22" t="n">
-        <v>473.8272960668249</v>
+        <v>308.9128478433634</v>
       </c>
       <c r="G22" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H22" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K22" t="n">
         <v>248.4064713020475</v>
@@ -5940,22 +5940,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T22" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U22" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V22" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W22" t="n">
-        <v>1636.446120074497</v>
+        <v>834.9321317361096</v>
       </c>
       <c r="X22" t="n">
-        <v>1490.124203461141</v>
+        <v>606.9425808380922</v>
       </c>
       <c r="Y22" t="n">
-        <v>1269.331624317611</v>
+        <v>606.9425808380922</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1585.174086820818</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C23" t="n">
-        <v>1585.174086820818</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.174086820818</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E23" t="n">
-        <v>1199.385834222573</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F23" t="n">
-        <v>788.3999294329658</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G23" t="n">
-        <v>372.6951791572546</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H23" t="n">
-        <v>68.63603515482492</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I23" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362822</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
@@ -6016,25 +6016,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T23" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U23" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V23" t="n">
-        <v>1975.313418796629</v>
+        <v>2056.181594983771</v>
       </c>
       <c r="W23" t="n">
-        <v>1975.313418796629</v>
+        <v>1703.412939713657</v>
       </c>
       <c r="X23" t="n">
-        <v>1975.313418796629</v>
+        <v>1703.412939713657</v>
       </c>
       <c r="Y23" t="n">
-        <v>1585.174086820818</v>
+        <v>1313.273607737845</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I24" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>507.2413987429755</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L24" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M24" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N24" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O24" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P24" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1387.807075285521</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C25" t="n">
-        <v>1218.870892357614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D25" t="n">
-        <v>1068.754252945278</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E25" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F25" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G25" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H25" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I25" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K25" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L25" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M25" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N25" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O25" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P25" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q25" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T25" t="n">
-        <v>2562.339328400155</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U25" t="n">
-        <v>2562.339328400155</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V25" t="n">
-        <v>2307.654840194268</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W25" t="n">
-        <v>2018.237670157308</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X25" t="n">
-        <v>1790.24811925929</v>
+        <v>155.6293447920665</v>
       </c>
       <c r="Y25" t="n">
-        <v>1569.45554011576</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1559.893700071314</v>
+        <v>1605.165657180484</v>
       </c>
       <c r="C26" t="n">
-        <v>1190.931183130902</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D26" t="n">
-        <v>832.6654845241519</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E26" t="n">
-        <v>832.6654845241519</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F26" t="n">
-        <v>421.6795797345444</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G26" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I26" t="n">
         <v>51.2467865680031</v>
@@ -6229,10 +6229,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
@@ -6256,22 +6256,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400155</v>
+        <v>2381.904829220417</v>
       </c>
       <c r="U26" t="n">
-        <v>2308.758267664335</v>
+        <v>2381.904829220417</v>
       </c>
       <c r="V26" t="n">
-        <v>1977.695380320764</v>
+        <v>2381.904829220417</v>
       </c>
       <c r="W26" t="n">
-        <v>1624.92672505065</v>
+        <v>2381.904829220417</v>
       </c>
       <c r="X26" t="n">
-        <v>1624.92672505065</v>
+        <v>2381.904829220417</v>
       </c>
       <c r="Y26" t="n">
-        <v>1624.92672505065</v>
+        <v>1991.765497244606</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D27" t="n">
         <v>607.9167021542605</v>
@@ -6293,7 +6293,7 @@
         <v>448.679247148805</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G27" t="n">
         <v>165.443278618252</v>
@@ -6305,25 +6305,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J27" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>507.2413987429755</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L27" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M27" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O27" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P27" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q27" t="n">
         <v>2562.339328400155</v>
@@ -6344,7 +6344,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X27" t="n">
         <v>1307.279776881661</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1087.683159487371</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C28" t="n">
-        <v>918.7469765594642</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D28" t="n">
-        <v>768.6303371471284</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E28" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F28" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G28" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H28" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I28" t="n">
         <v>51.2467865680031</v>
@@ -6408,28 +6408,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T28" t="n">
-        <v>1413.467639269232</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U28" t="n">
-        <v>1413.467639269232</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V28" t="n">
-        <v>1158.783151063345</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W28" t="n">
-        <v>1158.783151063345</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X28" t="n">
-        <v>1158.783151063345</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y28" t="n">
-        <v>1158.783151063345</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1992.424186004858</v>
+        <v>1033.854129889791</v>
       </c>
       <c r="C29" t="n">
-        <v>1992.424186004858</v>
+        <v>891.5908846145765</v>
       </c>
       <c r="D29" t="n">
-        <v>1634.158487398107</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="E29" t="n">
-        <v>1248.370234799863</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F29" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G29" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H29" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T29" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U29" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V29" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W29" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X29" t="n">
-        <v>1992.424186004858</v>
+        <v>1810.593301929725</v>
       </c>
       <c r="Y29" t="n">
-        <v>1992.424186004858</v>
+        <v>1420.453969953913</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G30" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J30" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>482.9033490193026</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L30" t="n">
-        <v>777.6069060507743</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.868925009994</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.15405360694</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O30" t="n">
-        <v>1860.224488783102</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q30" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R30" t="n">
         <v>2562.339328400155</v>
@@ -6575,7 +6575,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6584,7 +6584,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>833.0891146802707</v>
+        <v>582.433545191957</v>
       </c>
       <c r="C31" t="n">
-        <v>664.1529317523638</v>
+        <v>582.433545191957</v>
       </c>
       <c r="D31" t="n">
         <v>514.036292340028</v>
@@ -6612,34 +6612,34 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J31" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K31" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L31" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M31" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N31" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O31" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P31" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q31" t="n">
         <v>1636.446120074497</v>
@@ -6654,19 +6654,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U31" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V31" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W31" t="n">
-        <v>1463.519709552058</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X31" t="n">
-        <v>1235.53015865404</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="Y31" t="n">
-        <v>1014.73757951051</v>
+        <v>582.433545191957</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>652.5759934195828</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="C32" t="n">
-        <v>652.5759934195828</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="D32" t="n">
-        <v>652.5759934195828</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E32" t="n">
-        <v>652.5759934195828</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F32" t="n">
-        <v>241.5900886299752</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G32" t="n">
-        <v>241.5900886299752</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H32" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I32" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J32" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6721,31 +6721,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R32" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U32" t="n">
-        <v>2100.012626270159</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V32" t="n">
-        <v>1768.949738926588</v>
+        <v>2350.994529526983</v>
       </c>
       <c r="W32" t="n">
-        <v>1416.181083656474</v>
+        <v>1998.225874256868</v>
       </c>
       <c r="X32" t="n">
-        <v>1042.715325395395</v>
+        <v>1624.760115995789</v>
       </c>
       <c r="Y32" t="n">
-        <v>652.5759934195828</v>
+        <v>1234.620784019977</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F33" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J33" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K33" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L33" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M33" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O33" t="n">
-        <v>1800.470091281865</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P33" t="n">
-        <v>2362.930966067699</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R33" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S33" t="n">
         <v>2426.617474780096</v>
@@ -6818,10 +6818,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1539.908157006989</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C34" t="n">
-        <v>1370.971974079082</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D34" t="n">
-        <v>1220.855334666747</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E34" t="n">
-        <v>1124.029942391572</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F34" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G34" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H34" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I34" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J34" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K34" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M34" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N34" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O34" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P34" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S34" t="n">
-        <v>2459.755921915737</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T34" t="n">
-        <v>2459.755921915737</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U34" t="n">
-        <v>2459.755921915737</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V34" t="n">
-        <v>2459.755921915737</v>
+        <v>978.6839683500364</v>
       </c>
       <c r="W34" t="n">
-        <v>2170.338751878776</v>
+        <v>978.6839683500364</v>
       </c>
       <c r="X34" t="n">
-        <v>1942.349200980759</v>
+        <v>750.694417452019</v>
       </c>
       <c r="Y34" t="n">
-        <v>1721.556621837229</v>
+        <v>529.9018383084889</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1412.134398099142</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="C35" t="n">
-        <v>1043.17188115873</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="D35" t="n">
-        <v>1043.17188115873</v>
+        <v>625.3731821564031</v>
       </c>
       <c r="E35" t="n">
-        <v>657.3836285604862</v>
+        <v>625.3731821564031</v>
       </c>
       <c r="F35" t="n">
-        <v>246.3977237708786</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J35" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6967,22 +6967,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T35" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U35" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V35" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W35" t="n">
-        <v>2562.339328400155</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X35" t="n">
-        <v>2188.873570139076</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y35" t="n">
-        <v>1798.734238163264</v>
+        <v>983.6388807631536</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J36" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L36" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M36" t="n">
-        <v>1227.201367341571</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N36" t="n">
-        <v>1861.38035112061</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O36" t="n">
-        <v>2193.450786296771</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P36" t="n">
-        <v>2440.633520129068</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q36" t="n">
         <v>2562.339328400155</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>199.1598801503962</v>
+        <v>170.6096278019658</v>
       </c>
       <c r="C37" t="n">
-        <v>199.1598801503962</v>
+        <v>170.6096278019658</v>
       </c>
       <c r="D37" t="n">
-        <v>199.1598801503962</v>
+        <v>170.6096278019658</v>
       </c>
       <c r="E37" t="n">
-        <v>51.24678656800311</v>
+        <v>170.6096278019658</v>
       </c>
       <c r="F37" t="n">
-        <v>51.24678656800311</v>
+        <v>170.6096278019658</v>
       </c>
       <c r="G37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020475</v>
@@ -7125,22 +7125,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>1481.162005930953</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U37" t="n">
-        <v>1192.043668434791</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V37" t="n">
-        <v>937.3591802289043</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W37" t="n">
-        <v>647.9420101919436</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X37" t="n">
-        <v>419.9524592939263</v>
+        <v>352.2580926322055</v>
       </c>
       <c r="Y37" t="n">
-        <v>199.1598801503962</v>
+        <v>352.2580926322055</v>
       </c>
     </row>
     <row r="38">
@@ -7150,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1321.266375419619</v>
+        <v>1033.854129889791</v>
       </c>
       <c r="C38" t="n">
-        <v>952.3038584792075</v>
+        <v>664.8916129493794</v>
       </c>
       <c r="D38" t="n">
-        <v>594.0381598724571</v>
+        <v>664.8916129493794</v>
       </c>
       <c r="E38" t="n">
-        <v>208.2499072742128</v>
+        <v>664.8916129493794</v>
       </c>
       <c r="F38" t="n">
-        <v>51.2467865680031</v>
+        <v>664.8916129493794</v>
       </c>
       <c r="G38" t="n">
-        <v>51.2467865680031</v>
+        <v>249.1868626736682</v>
       </c>
       <c r="H38" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J38" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L38" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P38" t="n">
         <v>2360.886721764997</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S38" t="n">
         <v>2437.640120926625</v>
@@ -7207,19 +7207,19 @@
         <v>2437.640120926625</v>
       </c>
       <c r="U38" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V38" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="W38" t="n">
-        <v>2084.871465656511</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="X38" t="n">
-        <v>1711.405707395431</v>
+        <v>1810.593301929724</v>
       </c>
       <c r="Y38" t="n">
-        <v>1321.266375419619</v>
+        <v>1420.453969953913</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E39" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G39" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I39" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K39" t="n">
-        <v>614.5430248380227</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O39" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q39" t="n">
         <v>2562.339328400155</v>
@@ -7286,7 +7286,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
@@ -7295,7 +7295,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>167.7127827280586</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="C40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="D40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="E40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="F40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I40" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020475</v>
@@ -7356,28 +7356,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T40" t="n">
-        <v>1114.255484944676</v>
+        <v>1294.10479803527</v>
       </c>
       <c r="U40" t="n">
-        <v>1114.255484944676</v>
+        <v>1004.986460539108</v>
       </c>
       <c r="V40" t="n">
-        <v>859.5709967387889</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W40" t="n">
-        <v>570.1538267018284</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X40" t="n">
-        <v>570.1538267018284</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y40" t="n">
-        <v>349.3612475582983</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>778.4750021151654</v>
+        <v>906.1570541554036</v>
       </c>
       <c r="C41" t="n">
-        <v>409.5124851747536</v>
+        <v>906.1570541554036</v>
       </c>
       <c r="D41" t="n">
-        <v>51.24678656800311</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E41" t="n">
-        <v>51.24678656800311</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F41" t="n">
         <v>51.24678656800311</v>
@@ -7411,13 +7411,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
@@ -7441,22 +7441,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V41" t="n">
-        <v>2281.448587686293</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W41" t="n">
-        <v>1928.679932416179</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X41" t="n">
-        <v>1555.214174155099</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y41" t="n">
-        <v>1165.074842179287</v>
+        <v>906.1570541554036</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I42" t="n">
         <v>51.24678656800311</v>
@@ -7493,22 +7493,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>614.5430248380231</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2465818694948</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M42" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N42" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O42" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P42" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q42" t="n">
         <v>2562.339328400155</v>
@@ -7523,16 +7523,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>825.1371474485136</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C43" t="n">
-        <v>825.1371474485136</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D43" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E43" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F43" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G43" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H43" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I43" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K43" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P43" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q43" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.862713590079</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="S43" t="n">
-        <v>1337.23396574994</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="T43" t="n">
-        <v>1114.255484944676</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U43" t="n">
-        <v>825.1371474485136</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V43" t="n">
-        <v>825.1371474485136</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W43" t="n">
-        <v>825.1371474485136</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X43" t="n">
-        <v>825.1371474485136</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y43" t="n">
-        <v>825.1371474485136</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2188.873570139075</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="C44" t="n">
-        <v>1819.911053198663</v>
+        <v>1509.545268846059</v>
       </c>
       <c r="D44" t="n">
-        <v>1461.645354591913</v>
+        <v>1151.279570239309</v>
       </c>
       <c r="E44" t="n">
-        <v>1075.857101993669</v>
+        <v>765.4913176410646</v>
       </c>
       <c r="F44" t="n">
-        <v>664.8711972040612</v>
+        <v>354.505412851457</v>
       </c>
       <c r="G44" t="n">
-        <v>249.1664469283501</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H44" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I44" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K44" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923562</v>
@@ -7666,34 +7666,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V44" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W44" t="n">
-        <v>2562.339328400155</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X44" t="n">
-        <v>2188.873570139075</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y44" t="n">
-        <v>2188.873570139075</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I45" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L45" t="n">
-        <v>870.3292415458918</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M45" t="n">
-        <v>1233.591260505112</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N45" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O45" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
         <v>2562.339328400155</v>
@@ -7760,7 +7760,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V45" t="n">
         <v>1769.368633815395</v>
@@ -7769,7 +7769,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>575.2365734374698</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C46" t="n">
-        <v>406.3003905095629</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D46" t="n">
-        <v>406.3003905095629</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E46" t="n">
-        <v>406.3003905095629</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F46" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G46" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H46" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I46" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P46" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q46" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R46" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S46" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T46" t="n">
-        <v>1636.446120074497</v>
+        <v>1213.066757780305</v>
       </c>
       <c r="U46" t="n">
-        <v>1347.327782578335</v>
+        <v>1213.066757780305</v>
       </c>
       <c r="V46" t="n">
-        <v>1092.643294372448</v>
+        <v>958.3822695744182</v>
       </c>
       <c r="W46" t="n">
-        <v>803.2261243354872</v>
+        <v>668.9650995374575</v>
       </c>
       <c r="X46" t="n">
-        <v>575.2365734374698</v>
+        <v>440.9755486394401</v>
       </c>
       <c r="Y46" t="n">
-        <v>575.2365734374698</v>
+        <v>220.18296949591</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L2" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M2" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N2" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O2" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P2" t="n">
         <v>95.50771753390021</v>
@@ -8078,7 +8078,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,7 +8145,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M4" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N4" t="n">
         <v>62.89780050171086</v>
@@ -8221,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8315,7 +8315,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>116.9682609530348</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>255.5240487471567</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>249.3877325071646</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>240.4465442417443</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>186.4490126143855</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>54.95314511566482</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,19 +9485,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>186.449012614385</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>162.0073097921336</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>211.0329012241559</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>20.93778120154991</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>211.0329012241559</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>20.93778120154991</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>186.4490126143851</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.35797727397664</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,19 +10673,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.454437538930662</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>20.93778120154991</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>193.327346787835</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>20.93778120154991</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.3273467878355</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L45" t="n">
-        <v>15.64270034434963</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510929</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>204.5585635023743</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>34.4471876293633</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>7.8840106256811</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>132.0843969915467</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027088</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>65.70991267247049</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>49.67042516341223</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>30.54027397828293</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>90.46789842021462</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>80.85095794181444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>65.70991267247049</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>314.1444967257894</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>62.51747932885786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.90808845680503</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>322.834282712371</v>
       </c>
       <c r="C17" t="n">
-        <v>309.1110889860533</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23752,7 +23752,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.06623533991903</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.3613353340884</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>130.677290393913</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>211.8886948416167</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
         <v>65.70991267247049</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>58.46870853732642</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>48.4945565715169</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>201.153567915171</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>55.73584717546862</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,13 +24414,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>115.245920710272</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>318.3511469339381</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>28.02803079229366</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>109.4429885217226</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>22.14103276810812</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>224.4322789485447</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>263.2185448158202</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>80.90219269480264</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I31" t="n">
         <v>104.7965952039006</v>
@@ -24894,16 +24894,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>178.2885961935235</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.973122984488</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>50.57682429414584</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
         <v>104.7965952039006</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>117.9218418951345</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>315.74852955462</v>
       </c>
       <c r="G35" t="n">
-        <v>218.3482749421073</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>48.13738722318114</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551289</v>
@@ -25365,7 +25365,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>67.01742299510383</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>251.4429562425638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>170.7677898902674</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>51.94548490017294</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>76.49324754011454</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>297.1282925231298</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.547702772954</v>
@@ -25648,7 +25648,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>49.67042516341087</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>92.67373081984107</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>22.14103276810766</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>111.3216627523346</v>
       </c>
       <c r="H44" t="n">
-        <v>105.0780888056619</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>65.02117536949184</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>97.82316010727263</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>330600.7597974779</v>
+        <v>485153.5658931131</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611117</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.1879611122</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99166.69657404804</v>
+      </c>
+      <c r="C2" t="n">
         <v>99166.69657404805</v>
       </c>
-      <c r="C2" t="n">
-        <v>99166.69657404804</v>
-      </c>
       <c r="D2" t="n">
-        <v>99917.42429591442</v>
+        <v>153375.3739746994</v>
       </c>
       <c r="E2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="F2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="G2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="H2" t="n">
         <v>260075.8859201622</v>
@@ -26340,22 +26340,22 @@
         <v>260075.8859201622</v>
       </c>
       <c r="K2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="L2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="M2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="N2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="O2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="P2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>326899.4975468233</v>
       </c>
       <c r="E3" t="n">
-        <v>732170.4703829639</v>
+        <v>445061.6638164767</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47461.03838151119</v>
       </c>
       <c r="M3" t="n">
-        <v>159636.302498658</v>
+        <v>112904.1760744624</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>22471.52375672497</v>
       </c>
       <c r="D4" t="n">
-        <v>19093.49581609735</v>
+        <v>7145.895421973703</v>
       </c>
       <c r="E4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="F4" t="n">
         <v>12563.18241499341</v>
       </c>
       <c r="G4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="H4" t="n">
         <v>12563.18241499341</v>
@@ -26450,16 +26450,16 @@
         <v>12563.18241499341</v>
       </c>
       <c r="M4" t="n">
-        <v>12563.18241499342</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="N4" t="n">
         <v>12563.18241499341</v>
       </c>
       <c r="O4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="P4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="H5" t="n">
         <v>59310.17243984471</v>
@@ -26496,22 +26496,22 @@
         <v>59310.17243984471</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="M5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.1724398447</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188287.7288925272</v>
+        <v>-202980.4380465433</v>
       </c>
       <c r="C6" t="n">
-        <v>37949.3679861764</v>
+        <v>23256.65883216039</v>
       </c>
       <c r="D6" t="n">
-        <v>19230.19699311941</v>
+        <v>-249159.7828302771</v>
       </c>
       <c r="E6" t="n">
-        <v>-543967.9393176398</v>
+        <v>-262086.5954730443</v>
       </c>
       <c r="F6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="G6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434323</v>
       </c>
       <c r="H6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434326</v>
       </c>
       <c r="I6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="J6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="K6" t="n">
-        <v>188202.5310653239</v>
+        <v>182975.0683434323</v>
       </c>
       <c r="L6" t="n">
-        <v>188202.5310653243</v>
+        <v>135514.0299619213</v>
       </c>
       <c r="M6" t="n">
-        <v>28566.22856666609</v>
+        <v>70070.89226896994</v>
       </c>
       <c r="N6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
       <c r="O6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434323</v>
       </c>
       <c r="P6" t="n">
-        <v>188202.5310653241</v>
+        <v>182975.0683434324</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="E3" t="n">
         <v>934.0648921175391</v>
@@ -26752,7 +26752,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="H3" t="n">
         <v>934.0648921175391</v>
@@ -26764,10 +26764,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="K3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="L3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="M3" t="n">
         <v>934.0648921175391</v>
@@ -26776,10 +26776,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="O3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
         <v>640.5848321000389</v>
@@ -26807,31 +26807,31 @@
         <v>640.5848321000389</v>
       </c>
       <c r="H4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="I4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="J4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="L4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="M4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="M4" t="n">
-        <v>640.5848321000389</v>
-      </c>
       <c r="N4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="O4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
     </row>
   </sheetData>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>313.6899027869106</v>
       </c>
       <c r="E3" t="n">
-        <v>673.2684996000743</v>
+        <v>385.5949512046343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,19 +26986,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
-        <v>640.5848321000385</v>
+        <v>453.0592449337187</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000386</v>
+        <v>453.0592449337185</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000385</v>
+        <v>453.0592449337187</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31056,7 +31056,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L2" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M2" t="n">
         <v>165.7299311340341</v>
@@ -31065,7 +31065,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O2" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P2" t="n">
         <v>135.7252782213693</v>
@@ -31080,7 +31080,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T2" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U2" t="n">
         <v>0.07550714794001816</v>
@@ -31150,7 +31150,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R3" t="n">
         <v>31.35420961992052</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H4" t="n">
         <v>3.764178316183975</v>
@@ -31217,7 +31217,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M4" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N4" t="n">
         <v>64.78774396352233</v>
@@ -31229,13 +31229,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R4" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S4" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T4" t="n">
         <v>1.808960949495364</v>
@@ -31293,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31302,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31317,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31387,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31454,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31466,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H17" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I17" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J17" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L17" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T17" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U17" t="n">
         <v>0.3004027793744847</v>
@@ -32308,10 +32308,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H18" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J18" t="n">
         <v>189.8178475575841</v>
@@ -32320,34 +32320,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M18" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N18" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P18" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R18" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
@@ -32405,10 +32405,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P19" t="n">
         <v>203.7180217169137</v>
@@ -32417,16 +32417,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S19" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H29" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I29" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J29" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K29" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L29" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M29" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N29" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O29" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P29" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q29" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R29" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S29" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T29" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U29" t="n">
         <v>0.3004027793744847</v>
@@ -33256,10 +33256,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H30" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I30" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J30" t="n">
         <v>189.8178475575841</v>
@@ -33268,34 +33268,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L30" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M30" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N30" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O30" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P30" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q30" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R30" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S30" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T30" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I31" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J31" t="n">
         <v>119.0856174753787</v>
@@ -33353,10 +33353,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N31" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O31" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P31" t="n">
         <v>203.7180217169137</v>
@@ -33365,16 +33365,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R31" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S31" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T31" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,43 +33414,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H32" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I32" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J32" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K32" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L32" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M32" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N32" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O32" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P32" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q32" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R32" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S32" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T32" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U32" t="n">
         <v>0.3004027793744847</v>
@@ -33493,10 +33493,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H33" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I33" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J33" t="n">
         <v>189.8178475575841</v>
@@ -33505,7 +33505,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L33" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M33" t="n">
         <v>509.0653662040588</v>
@@ -33514,25 +33514,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O33" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P33" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q33" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R33" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S33" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T33" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I34" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J34" t="n">
         <v>119.0856174753787</v>
@@ -33590,10 +33590,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N34" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O34" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P34" t="n">
         <v>203.7180217169137</v>
@@ -33605,13 +33605,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S34" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T34" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H41" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I41" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J41" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K41" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L41" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M41" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N41" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P41" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q41" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R41" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S41" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T41" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U41" t="n">
         <v>0.3004027793744847</v>
@@ -34204,10 +34204,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H42" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I42" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J42" t="n">
         <v>189.8178475575841</v>
@@ -34216,34 +34216,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L42" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M42" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N42" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O42" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P42" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q42" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R42" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S42" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T42" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,7 +34286,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I43" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J43" t="n">
         <v>119.0856174753787</v>
@@ -34301,10 +34301,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N43" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O43" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P43" t="n">
         <v>203.7180217169137</v>
@@ -34313,16 +34313,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R43" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S43" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T43" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H44" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I44" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J44" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L44" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R44" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T44" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U44" t="n">
         <v>0.3004027793744847</v>
@@ -34441,10 +34441,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H45" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J45" t="n">
         <v>189.8178475575841</v>
@@ -34453,34 +34453,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O45" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R45" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S45" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T45" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,7 +34523,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I46" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J46" t="n">
         <v>119.0856174753787</v>
@@ -34538,10 +34538,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N46" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O46" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P46" t="n">
         <v>203.7180217169137</v>
@@ -34550,16 +34550,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S46" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T46" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>98.86065188594098</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K12" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L12" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M12" t="n">
-        <v>622.4553810291972</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N12" t="n">
-        <v>640.5848321000385</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
         <v>335.424681996123</v>
@@ -35509,7 +35509,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R12" t="n">
         <v>24.58388860977091</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L15" t="n">
         <v>297.6803606378501</v>
@@ -35743,10 +35743,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R15" t="n">
         <v>24.58388860977091</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P17" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K18" t="n">
-        <v>373.0365088578703</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378501</v>
+        <v>352.6335057535151</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N18" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O18" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P18" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R18" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K19" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L19" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M19" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O19" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P19" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L21" t="n">
-        <v>484.1293732522352</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M21" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N21" t="n">
-        <v>391.1970995928739</v>
+        <v>553.2044093850075</v>
       </c>
       <c r="O21" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q21" t="n">
         <v>116.4807223308545</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K24" t="n">
-        <v>397.6203974676407</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378501</v>
@@ -36454,10 +36454,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K27" t="n">
-        <v>397.6203974676407</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378501</v>
@@ -36691,10 +36691,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K29" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L29" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M29" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N29" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O29" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P29" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q29" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R29" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K30" t="n">
-        <v>373.0365088578699</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L30" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M30" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N30" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O30" t="n">
-        <v>335.4246819961231</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P30" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R30" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K31" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L31" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M31" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N31" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O31" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P31" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q31" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K32" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L32" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M32" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N32" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O32" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P32" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R32" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K33" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L33" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M33" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N33" t="n">
         <v>391.1970995928739</v>
@@ -37165,13 +37165,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P33" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q33" t="n">
-        <v>176.8386996048312</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R33" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K34" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L34" t="n">
         <v>278.0112915831069</v>
@@ -37238,7 +37238,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N34" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O34" t="n">
         <v>262.6644876295069</v>
@@ -37247,7 +37247,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q34" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K36" t="n">
         <v>186.5874962434848</v>
@@ -37393,19 +37393,19 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M36" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N36" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O36" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q36" t="n">
-        <v>122.9351598697852</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313198</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378501</v>
@@ -37639,10 +37639,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P39" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L41" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M41" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N41" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P41" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>379.9148430313203</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L42" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N42" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O42" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P42" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K43" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L43" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M43" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N43" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O43" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P43" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P44" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L45" t="n">
-        <v>313.3230609821998</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N45" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K46" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L46" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M46" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N46" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P46" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336396.3048630666</v>
+        <v>398045.5087044805</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11512539.900382</v>
+        <v>11391437.76547035</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10361893.43952979</v>
+        <v>10676351.96705205</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8239106.155279132</v>
+        <v>8096213.398164084</v>
       </c>
     </row>
     <row r="11">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>138.2613113589524</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714234</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845758</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>91.6352764985534</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>253.9396292284929</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>339.1908267001861</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705015</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>192.0665623188214</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868075</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>130.2807975769973</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>53.98845542720215</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,10 +1612,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.23097631110158</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>13.60776174434548</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3343964518638</v>
       </c>
       <c r="H15" t="n">
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>103.3387326418228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.23288015919182</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.8995589511096</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.905978890210945</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H18" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269698</v>
       </c>
       <c r="I18" t="n">
         <v>20.22295923705012</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54923767829332</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.3066000448042</v>
@@ -2058,19 +2058,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>176.5466264766507</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>234.5956013770945</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>129.3298946094117</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>107.8378915074778</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>2.516080147285321</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>89.9333293120084</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>126.5986905549639</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>90.94684326291997</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.3387326418228</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>62.19907457024081</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>178.6301541879401</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>198.6076632291038</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>76.27033510430741</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>140.8406128224628</v>
+        <v>27.47862013186448</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.547702772954</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.71328032340972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.715438795037</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>234.2847802367001</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>85.77913548564688</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,10 +3125,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H33" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269607</v>
       </c>
       <c r="I33" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>78.2794053130592</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>134.2158014286935</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>91.12751618709144</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.547702772954</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>88.6125016849392</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>118.169212821623</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>100.6867690249409</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>130.250762672138</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
         <v>65.70991267247049</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>130.6528593994773</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>144.2554484570974</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7746356575067</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>12.94956793075082</v>
       </c>
       <c r="D41" t="n">
-        <v>57.55474909755313</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>42.34729260666707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>79.41653965146595</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
         <v>220.7486959972119</v>
@@ -3957,13 +3957,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>300.2260400206193</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>278.0818333067236</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>82.02794315272757</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>122.9255358899393</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204.4218319897906</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>204.4218319897906</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>204.4218319897906</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897906</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897906</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678512</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079187</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644759</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123835</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985591</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020272</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652805</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652805</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652805</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652805</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652805</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>560.6825636487955</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>371.2627786323105</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>204.4218319897906</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>204.4218319897906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.6599372348737</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024219</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772652</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652805</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843287</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>722.9192922843287</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>533.4995072678437</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>344.0797222513587</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>154.6599372348737</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>154.6599372348737</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>154.6599372348737</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>154.6599372348737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>330.580817908301</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>330.580817908301</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>330.580817908301</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>330.580817908301</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>183.6908704103906</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330561</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>279.6026869745585</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>465.2530182692154</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>650.9033495638723</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>652.2303032981989</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652805</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846282</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>612.5614882768601</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>612.5614882768601</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>520.000602924786</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>520.000602924786</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>520.000602924786</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>330.580817908301</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>330.580817908301</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>330.580817908301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>771.0106808461439</v>
+        <v>1189.460906904773</v>
       </c>
       <c r="C11" t="n">
-        <v>771.0106808461439</v>
+        <v>820.4983899643612</v>
       </c>
       <c r="D11" t="n">
-        <v>771.0106808461439</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="E11" t="n">
-        <v>771.0106808461439</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F11" t="n">
-        <v>771.0106808461439</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G11" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H11" t="n">
         <v>51.24678656800311</v>
@@ -5041,16 +5041,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N11" t="n">
         <v>1656.671415230817</v>
@@ -5068,25 +5068,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T11" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U11" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V11" t="n">
-        <v>1852.996172847234</v>
+        <v>2305.834652411779</v>
       </c>
       <c r="W11" t="n">
-        <v>1500.22751757712</v>
+        <v>1953.065997141664</v>
       </c>
       <c r="X11" t="n">
-        <v>1157.610520910266</v>
+        <v>1579.600238880585</v>
       </c>
       <c r="Y11" t="n">
-        <v>1157.610520910266</v>
+        <v>1189.460906904773</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I12" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K12" t="n">
-        <v>590.2049751143501</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L12" t="n">
-        <v>884.9085321458217</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M12" t="n">
         <v>1248.170551105042</v>
@@ -5159,7 +5159,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X12" t="n">
         <v>1307.279776881661</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.2533734782492</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C13" t="n">
-        <v>348.2533734782492</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D13" t="n">
-        <v>198.1367340659135</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E13" t="n">
         <v>198.1367340659135</v>
@@ -5199,52 +5199,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S13" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T13" t="n">
-        <v>1402.265948360789</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U13" t="n">
-        <v>1113.147610864627</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V13" t="n">
-        <v>858.4631226587398</v>
+        <v>967.2321019278427</v>
       </c>
       <c r="W13" t="n">
-        <v>569.0459526217793</v>
+        <v>677.814931890882</v>
       </c>
       <c r="X13" t="n">
-        <v>569.0459526217793</v>
+        <v>677.814931890882</v>
       </c>
       <c r="Y13" t="n">
-        <v>348.2533734782492</v>
+        <v>677.814931890882</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2295.013053781158</v>
+        <v>1587.556048344953</v>
       </c>
       <c r="C14" t="n">
-        <v>1926.050536840746</v>
+        <v>1218.593531404541</v>
       </c>
       <c r="D14" t="n">
-        <v>1567.784838233996</v>
+        <v>1218.593531404541</v>
       </c>
       <c r="E14" t="n">
-        <v>1181.996585635751</v>
+        <v>1218.593531404541</v>
       </c>
       <c r="F14" t="n">
-        <v>771.0106808461439</v>
+        <v>807.6076266149335</v>
       </c>
       <c r="G14" t="n">
-        <v>355.3059305704328</v>
+        <v>391.9028763392223</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800311</v>
+        <v>87.84373233679258</v>
       </c>
       <c r="I14" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
@@ -5314,16 +5314,16 @@
         <v>2308.758267664335</v>
       </c>
       <c r="V14" t="n">
-        <v>2295.013053781158</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W14" t="n">
-        <v>2295.013053781158</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X14" t="n">
-        <v>2295.013053781158</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.013053781158</v>
+        <v>1587.556048344953</v>
       </c>
     </row>
     <row r="15">
@@ -5339,19 +5339,19 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F15" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G15" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I15" t="n">
         <v>51.24678656800311</v>
@@ -5360,22 +5360,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>590.2049751143501</v>
+        <v>551.2876347907472</v>
       </c>
       <c r="L15" t="n">
-        <v>884.9085321458217</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M15" t="n">
-        <v>1248.170551105042</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N15" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O15" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P15" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q15" t="n">
         <v>2538.001278676482</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.6293447920665</v>
+        <v>528.3525561915587</v>
       </c>
       <c r="C16" t="n">
-        <v>51.24678656800311</v>
+        <v>359.4163732636518</v>
       </c>
       <c r="D16" t="n">
-        <v>51.24678656800311</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E16" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F16" t="n">
         <v>51.24678656800311</v>
@@ -5436,25 +5436,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q16" t="n">
         <v>1636.446120074497</v>
@@ -5463,25 +5463,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T16" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U16" t="n">
-        <v>927.7205539329314</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V16" t="n">
-        <v>673.0360657270445</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W16" t="n">
-        <v>383.6188956900839</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="X16" t="n">
-        <v>155.6293447920665</v>
+        <v>930.7936001653286</v>
       </c>
       <c r="Y16" t="n">
-        <v>155.6293447920665</v>
+        <v>710.0010210217985</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1313.273607737845</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C17" t="n">
-        <v>944.3110907974333</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D17" t="n">
-        <v>944.3110907974333</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E17" t="n">
-        <v>944.3110907974333</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F17" t="n">
-        <v>533.3251860078258</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G17" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H17" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M17" t="n">
         <v>1220.470313923562</v>
@@ -5533,34 +5533,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S17" t="n">
-        <v>2562.339328400155</v>
+        <v>2559.403996187822</v>
       </c>
       <c r="T17" t="n">
-        <v>2353.59368700598</v>
+        <v>2559.403996187822</v>
       </c>
       <c r="U17" t="n">
-        <v>2100.01262627016</v>
+        <v>2305.822935452001</v>
       </c>
       <c r="V17" t="n">
-        <v>2100.01262627016</v>
+        <v>1974.760048108431</v>
       </c>
       <c r="W17" t="n">
-        <v>1747.243971000046</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="X17" t="n">
-        <v>1373.778212738966</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="Y17" t="n">
-        <v>1373.778212738966</v>
+        <v>1621.991392838317</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G18" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H18" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J18" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K18" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L18" t="n">
-        <v>909.2465818694941</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M18" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N18" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O18" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P18" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S18" t="n">
         <v>2426.617474780096</v>
@@ -5627,16 +5627,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y18" t="n">
         <v>1099.519478116707</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.2476435302233</v>
+        <v>536.0825277700245</v>
       </c>
       <c r="C19" t="n">
-        <v>580.2476435302233</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D19" t="n">
-        <v>514.036292340028</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E19" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F19" t="n">
         <v>219.2332512597245</v>
       </c>
       <c r="G19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J19" t="n">
         <v>76.715959553122</v>
@@ -5706,19 +5706,19 @@
         <v>1413.467639269233</v>
       </c>
       <c r="U19" t="n">
-        <v>1124.349301773071</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V19" t="n">
-        <v>869.6648135671838</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W19" t="n">
-        <v>580.2476435302233</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X19" t="n">
-        <v>580.2476435302233</v>
+        <v>896.0609183342549</v>
       </c>
       <c r="Y19" t="n">
-        <v>580.2476435302233</v>
+        <v>717.7309926002642</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1114.902695549579</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="C20" t="n">
-        <v>877.9374416333219</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="D20" t="n">
-        <v>877.9374416333219</v>
+        <v>1156.798933444388</v>
       </c>
       <c r="E20" t="n">
-        <v>877.9374416333219</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F20" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G20" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I20" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N20" t="n">
         <v>1656.671415230817</v>
@@ -5779,25 +5779,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T20" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U20" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V20" t="n">
-        <v>2231.276441056585</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W20" t="n">
-        <v>1878.507785786471</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X20" t="n">
-        <v>1505.042027525391</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y20" t="n">
-        <v>1114.902695549579</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E21" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G21" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I21" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L21" t="n">
-        <v>932.4978103100998</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M21" t="n">
-        <v>1295.75982926932</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O21" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P21" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q21" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R21" t="n">
         <v>2562.339328400155</v>
@@ -5864,7 +5864,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V21" t="n">
         <v>1769.368633815395</v>
@@ -5873,7 +5873,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.519478116707</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>606.9425808380922</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C22" t="n">
-        <v>606.9425808380922</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D22" t="n">
-        <v>456.8259414257565</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E22" t="n">
-        <v>308.9128478433634</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F22" t="n">
-        <v>308.9128478433634</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G22" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H22" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I22" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K22" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L22" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N22" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P22" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
         <v>1636.446120074497</v>
@@ -5940,22 +5940,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T22" t="n">
-        <v>1413.467639269232</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U22" t="n">
-        <v>1124.34930177307</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V22" t="n">
-        <v>1124.34930177307</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W22" t="n">
-        <v>834.9321317361096</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="X22" t="n">
-        <v>606.9425808380922</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="Y22" t="n">
-        <v>606.9425808380922</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1313.273607737845</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C23" t="n">
-        <v>944.3110907974335</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="D23" t="n">
-        <v>944.3110907974335</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="E23" t="n">
-        <v>944.3110907974335</v>
+        <v>142.0885333478096</v>
       </c>
       <c r="F23" t="n">
-        <v>533.3251860078259</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G23" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H23" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I23" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
@@ -6019,22 +6019,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T23" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U23" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V23" t="n">
-        <v>2056.181594983771</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W23" t="n">
-        <v>1703.412939713657</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X23" t="n">
-        <v>1703.412939713657</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y23" t="n">
-        <v>1313.273607737845</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E24" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G24" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I24" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K24" t="n">
-        <v>614.5430248380227</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L24" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M24" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O24" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P24" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6101,7 +6101,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V24" t="n">
         <v>1769.368633815395</v>
@@ -6110,7 +6110,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y24" t="n">
         <v>1099.519478116707</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.24678656800311</v>
+        <v>609.1284824998271</v>
       </c>
       <c r="C25" t="n">
-        <v>51.24678656800311</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D25" t="n">
-        <v>51.24678656800311</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E25" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F25" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G25" t="n">
         <v>51.24678656800311</v>
@@ -6147,25 +6147,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N25" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O25" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P25" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q25" t="n">
         <v>1636.446120074497</v>
@@ -6174,25 +6174,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T25" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U25" t="n">
-        <v>927.7205539329314</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V25" t="n">
-        <v>673.0360657270445</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W25" t="n">
-        <v>383.6188956900839</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="X25" t="n">
-        <v>155.6293447920665</v>
+        <v>829.9210616433572</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.24678656800311</v>
+        <v>609.1284824998271</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1605.165657180484</v>
+        <v>472.3398332255019</v>
       </c>
       <c r="C26" t="n">
-        <v>1236.203140240072</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D26" t="n">
-        <v>877.9374416333219</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E26" t="n">
-        <v>877.9374416333219</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F26" t="n">
-        <v>466.9515368437143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G26" t="n">
         <v>51.2467865680031</v>
@@ -6253,25 +6253,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T26" t="n">
-        <v>2381.904829220417</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U26" t="n">
-        <v>2381.904829220417</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V26" t="n">
-        <v>2381.904829220417</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W26" t="n">
-        <v>2381.904829220417</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X26" t="n">
-        <v>2381.904829220417</v>
+        <v>1249.079005265435</v>
       </c>
       <c r="Y26" t="n">
-        <v>1991.765497244606</v>
+        <v>858.9396732896237</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>302.14468917569</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H27" t="n">
         <v>71.67401812057901</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.2467865680031</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C28" t="n">
-        <v>51.2467865680031</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D28" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E28" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F28" t="n">
         <v>51.2467865680031</v>
@@ -6408,28 +6408,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>1333.24891234856</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U28" t="n">
-        <v>1044.130574852398</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V28" t="n">
-        <v>789.4460866465112</v>
+        <v>1047.308559243467</v>
       </c>
       <c r="W28" t="n">
-        <v>500.0289166095505</v>
+        <v>757.8913892065062</v>
       </c>
       <c r="X28" t="n">
-        <v>272.0393657115332</v>
+        <v>529.9018383084889</v>
       </c>
       <c r="Y28" t="n">
-        <v>51.2467865680031</v>
+        <v>529.9018383084889</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1033.854129889791</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="C29" t="n">
-        <v>891.5908846145765</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D29" t="n">
-        <v>533.3251860078259</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E29" t="n">
-        <v>533.3251860078259</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F29" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I29" t="n">
         <v>51.2467865680031</v>
@@ -6466,10 +6466,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L29" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6493,22 +6493,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T29" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U29" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V29" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W29" t="n">
-        <v>2184.059060190805</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X29" t="n">
-        <v>1810.593301929725</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y29" t="n">
-        <v>1420.453969953913</v>
+        <v>1291.481876182944</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G30" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I30" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J30" t="n">
-        <v>238.4273302370161</v>
+        <v>114.5432626034352</v>
       </c>
       <c r="K30" t="n">
-        <v>423.148951518066</v>
+        <v>299.2648838844851</v>
       </c>
       <c r="L30" t="n">
-        <v>717.8525085495377</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M30" t="n">
-        <v>1081.114527508758</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.399656105703</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P30" t="n">
         <v>2239.046898434118</v>
@@ -6575,7 +6575,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6584,7 +6584,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.433545191957</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C31" t="n">
-        <v>582.433545191957</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D31" t="n">
         <v>514.036292340028</v>
@@ -6648,25 +6648,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T31" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U31" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V31" t="n">
-        <v>1092.643294372448</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W31" t="n">
-        <v>803.2261243354872</v>
+        <v>695.6847571702677</v>
       </c>
       <c r="X31" t="n">
-        <v>803.2261243354872</v>
+        <v>695.6847571702677</v>
       </c>
       <c r="Y31" t="n">
-        <v>582.433545191957</v>
+        <v>695.6847571702677</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>848.0209439558549</v>
+        <v>1089.391082610342</v>
       </c>
       <c r="C32" t="n">
-        <v>848.0209439558549</v>
+        <v>1089.391082610342</v>
       </c>
       <c r="D32" t="n">
-        <v>848.0209439558549</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E32" t="n">
-        <v>462.2326913576107</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F32" t="n">
-        <v>51.24678656800312</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J32" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6721,31 +6721,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R32" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T32" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U32" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V32" t="n">
-        <v>2350.994529526983</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W32" t="n">
-        <v>1998.225874256868</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X32" t="n">
-        <v>1624.760115995789</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="Y32" t="n">
-        <v>1234.620784019977</v>
+        <v>1089.391082610342</v>
       </c>
     </row>
     <row r="33">
@@ -6761,49 +6761,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E33" t="n">
         <v>448.6792471488047</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G33" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H33" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J33" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K33" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L33" t="n">
-        <v>854.8429682049859</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M33" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N33" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O33" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P33" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R33" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S33" t="n">
         <v>2426.617474780096</v>
@@ -6812,7 +6812,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V33" t="n">
         <v>1769.368633815395</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>348.2533734782492</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="C34" t="n">
-        <v>348.2533734782492</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="D34" t="n">
-        <v>198.1367340659135</v>
+        <v>425.1199340251341</v>
       </c>
       <c r="E34" t="n">
-        <v>198.1367340659135</v>
+        <v>277.2068404427409</v>
       </c>
       <c r="F34" t="n">
-        <v>51.24678656800312</v>
+        <v>130.3168929448306</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K34" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M34" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N34" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O34" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P34" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q34" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U34" t="n">
-        <v>1114.255484944676</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V34" t="n">
-        <v>978.6839683500364</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W34" t="n">
-        <v>978.6839683500364</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X34" t="n">
-        <v>750.694417452019</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y34" t="n">
-        <v>529.9018383084889</v>
+        <v>575.2365734374698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>983.6388807631536</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C35" t="n">
-        <v>983.6388807631536</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D35" t="n">
-        <v>625.3731821564031</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E35" t="n">
-        <v>625.3731821564031</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F35" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G35" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H35" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L35" t="n">
         <v>795.7553530872913</v>
@@ -6970,19 +6970,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U35" t="n">
-        <v>2100.012626270159</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V35" t="n">
-        <v>2100.012626270159</v>
+        <v>2010.505048810625</v>
       </c>
       <c r="W35" t="n">
-        <v>1747.243971000045</v>
+        <v>2010.505048810625</v>
       </c>
       <c r="X35" t="n">
-        <v>1373.778212738965</v>
+        <v>1637.039290549545</v>
       </c>
       <c r="Y35" t="n">
-        <v>983.6388807631536</v>
+        <v>1246.899958573734</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
         <v>607.9167021542605</v>
@@ -7007,34 +7007,34 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G36" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I36" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L36" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M36" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O36" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P36" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q36" t="n">
         <v>2562.339328400155</v>
@@ -7055,7 +7055,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X36" t="n">
         <v>1307.279776881661</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.6096278019658</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C37" t="n">
-        <v>170.6096278019658</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D37" t="n">
-        <v>170.6096278019658</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E37" t="n">
-        <v>170.6096278019658</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F37" t="n">
-        <v>170.6096278019658</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020475</v>
@@ -7119,28 +7119,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S37" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T37" t="n">
-        <v>1413.467639269232</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="U37" t="n">
-        <v>1124.34930177307</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="V37" t="n">
-        <v>869.6648135671834</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="W37" t="n">
-        <v>580.2476435302228</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X37" t="n">
-        <v>352.2580926322055</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y37" t="n">
-        <v>352.2580926322055</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="38">
@@ -7150,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1033.854129889791</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C38" t="n">
-        <v>664.8916129493794</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D38" t="n">
-        <v>664.8916129493794</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E38" t="n">
-        <v>664.8916129493794</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F38" t="n">
-        <v>664.8916129493794</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G38" t="n">
-        <v>249.1868626736682</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H38" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J38" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M38" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P38" t="n">
         <v>2360.886721764997</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
         <v>2437.640120926625</v>
@@ -7207,19 +7207,19 @@
         <v>2437.640120926625</v>
       </c>
       <c r="U38" t="n">
-        <v>2184.059060190804</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V38" t="n">
-        <v>2184.059060190804</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W38" t="n">
-        <v>2184.059060190804</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X38" t="n">
-        <v>1810.593301929724</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y38" t="n">
-        <v>1420.453969953913</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G39" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J39" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K39" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L39" t="n">
-        <v>801.9449557744472</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M39" t="n">
-        <v>1165.206974733667</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.492103330613</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O39" t="n">
-        <v>1884.562538506774</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P39" t="n">
-        <v>2447.023413292609</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7286,7 +7286,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
@@ -7295,7 +7295,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.24678656800309</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C40" t="n">
-        <v>51.24678656800309</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D40" t="n">
-        <v>51.24678656800309</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E40" t="n">
-        <v>51.24678656800309</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F40" t="n">
-        <v>51.24678656800309</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G40" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H40" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020475</v>
@@ -7362,22 +7362,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T40" t="n">
-        <v>1294.10479803527</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U40" t="n">
-        <v>1004.986460539108</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V40" t="n">
-        <v>750.3019723332208</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W40" t="n">
-        <v>460.8848022962601</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="X40" t="n">
-        <v>232.8952513982428</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="Y40" t="n">
-        <v>232.8952513982428</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>906.1570541554036</v>
+        <v>1224.085859695932</v>
       </c>
       <c r="C41" t="n">
-        <v>906.1570541554036</v>
+        <v>1211.005488048709</v>
       </c>
       <c r="D41" t="n">
-        <v>848.0209439558549</v>
+        <v>852.7397894419585</v>
       </c>
       <c r="E41" t="n">
-        <v>462.2326913576107</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F41" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
@@ -7447,16 +7447,16 @@
         <v>2353.59368700598</v>
       </c>
       <c r="V41" t="n">
-        <v>2022.530799662409</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W41" t="n">
-        <v>1669.762144392295</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="X41" t="n">
-        <v>1296.296386131215</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="Y41" t="n">
-        <v>906.1570541554036</v>
+        <v>1610.685699760054</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G42" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J42" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>614.5430248380223</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2465818694941</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M42" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N42" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O42" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P42" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7523,7 +7523,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
@@ -7532,7 +7532,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.24678656800311</v>
+        <v>706.9279747894012</v>
       </c>
       <c r="C43" t="n">
-        <v>51.24678656800311</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D43" t="n">
-        <v>51.24678656800311</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E43" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F43" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J43" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K43" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P43" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q43" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1556.227393153825</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T43" t="n">
-        <v>1333.24891234856</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U43" t="n">
-        <v>1044.130574852398</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V43" t="n">
-        <v>789.4460866465112</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W43" t="n">
-        <v>500.0289166095505</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="X43" t="n">
-        <v>272.0393657115332</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.24678656800311</v>
+        <v>706.9279747894012</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1878.507785786471</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C44" t="n">
-        <v>1509.545268846059</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D44" t="n">
-        <v>1151.279570239309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E44" t="n">
-        <v>765.4913176410646</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F44" t="n">
-        <v>354.505412851457</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G44" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923562</v>
@@ -7666,34 +7666,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U44" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V44" t="n">
-        <v>2231.276441056585</v>
+        <v>2281.448587686293</v>
       </c>
       <c r="W44" t="n">
-        <v>1878.507785786471</v>
+        <v>1928.679932416179</v>
       </c>
       <c r="X44" t="n">
-        <v>1878.507785786471</v>
+        <v>1555.214174155099</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.507785786471</v>
+        <v>1165.074842179287</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G45" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M45" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O45" t="n">
         <v>1991.864164601821</v>
@@ -7760,7 +7760,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V45" t="n">
         <v>1769.368633815395</v>
@@ -7769,7 +7769,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>220.18296949591</v>
+        <v>747.9591582236276</v>
       </c>
       <c r="C46" t="n">
-        <v>51.24678656800312</v>
+        <v>579.0229752957207</v>
       </c>
       <c r="D46" t="n">
-        <v>51.24678656800312</v>
+        <v>428.9063358833849</v>
       </c>
       <c r="E46" t="n">
-        <v>51.24678656800312</v>
+        <v>280.9932423009918</v>
       </c>
       <c r="F46" t="n">
-        <v>51.24678656800312</v>
+        <v>134.1032948030815</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J46" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P46" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q46" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R46" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T46" t="n">
-        <v>1213.066757780305</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U46" t="n">
-        <v>1213.066757780305</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V46" t="n">
-        <v>958.3822695744182</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="W46" t="n">
-        <v>668.9650995374575</v>
+        <v>1150.400202197397</v>
       </c>
       <c r="X46" t="n">
-        <v>440.9755486394401</v>
+        <v>1150.400202197397</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.18296949591</v>
+        <v>929.6076230538673</v>
       </c>
     </row>
   </sheetData>
@@ -8221,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8315,7 +8315,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265835</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457085</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711118</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>116.9682609530348</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>294.834493518473</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>168.7434581780647</v>
+        <v>129.4330134067486</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,13 +9245,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>54.95314511566482</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>20.93778120154988</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L21" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>162.0073097921336</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883069305</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>265.0304328515151</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="R39" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.3273467878346</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3273467878346</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637379</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368128</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V8" t="n">
-        <v>140.2266713038148</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>204.5585635023743</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>34.4471876293633</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550655</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T9" t="n">
-        <v>7.8840106256811</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U9" t="n">
-        <v>38.3381812437708</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310515</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>23.4337583055308</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T10" t="n">
-        <v>132.0843969915467</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>98.99741117027088</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>73.81262924164201</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>30.54027397828293</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
         <v>104.7965952039006</v>
@@ -23469,13 +23469,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>90.46789842021462</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>198.1491878966258</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247049</v>
+        <v>29.47893636136889</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>314.1444967257894</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>63.90808845680503</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3825928590205</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
         <v>104.7965952039006</v>
@@ -23703,25 +23703,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.834282712371</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>120.5462365085834</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06623533991903</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>42.03802687544405</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>130.677290393913</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>225.3531470112712</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>206.6581849802338</v>
@@ -24028,10 +24028,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>58.46870853732642</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
         <v>104.7965952039006</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>216.0685732048095</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>316.9427164297031</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>201.153567915171</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>76.29997783570786</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
         <v>104.7965952039006</v>
@@ -24414,16 +24414,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.245920710272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>303.0738172007667</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>28.02803079229366</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.3066000448042</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>22.14103276810812</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>175.8673082195206</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>224.4322789485447</v>
+        <v>337.7942716391431</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.90219269480264</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>56.80755954155404</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>120.3982613839828</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
@@ -24973,13 +24973,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.973122984488</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>88.02719473174498</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I34" t="n">
         <v>104.7965952039006</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.9218418951345</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>315.74852955462</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>239.1397567851957</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>48.13738722318114</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551289</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>120.061926972271</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>170.7677898902674</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>255.5850792565763</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551289</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>76.49324754011454</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.8100176945881</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>352.3233238402568</v>
       </c>
       <c r="D41" t="n">
-        <v>297.1282925231298</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>124.8995284919608</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I43" t="n">
         <v>104.7965952039006</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>22.14103276810766</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>111.3216627523346</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>49.67042516341132</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>84.27865689207661</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I46" t="n">
         <v>104.7965952039006</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.82316010727263</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>485153.5658931131</v>
+        <v>330600.7597974779</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.1879611117</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.1879611117</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822866.1879611117</v>
+        <v>822866.1879611119</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822866.1879611119</v>
+        <v>822866.187961112</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822866.187961112</v>
+        <v>822866.1879611121</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822866.1879611122</v>
+        <v>822866.187961112</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>99166.69657404804</v>
       </c>
       <c r="C2" t="n">
-        <v>99166.69657404805</v>
+        <v>99166.69657404804</v>
       </c>
       <c r="D2" t="n">
-        <v>153375.3739746994</v>
+        <v>99917.42429591442</v>
       </c>
       <c r="E2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="F2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="G2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="H2" t="n">
         <v>260075.8859201622</v>
@@ -26343,7 +26343,7 @@
         <v>260075.8859201621</v>
       </c>
       <c r="L2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="M2" t="n">
         <v>260075.8859201621</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>326899.4975468233</v>
+        <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>445061.6638164767</v>
+        <v>732170.470382964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47461.03838151119</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>112904.1760744624</v>
+        <v>159636.3024986581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>22471.52375672497</v>
       </c>
       <c r="D4" t="n">
-        <v>7145.895421973703</v>
+        <v>19093.49581609735</v>
       </c>
       <c r="E4" t="n">
         <v>12563.18241499341</v>
@@ -26432,13 +26432,13 @@
         <v>12563.18241499341</v>
       </c>
       <c r="G4" t="n">
+        <v>12563.18241499341</v>
+      </c>
+      <c r="H4" t="n">
         <v>12563.1824149934</v>
       </c>
-      <c r="H4" t="n">
-        <v>12563.18241499341</v>
-      </c>
       <c r="I4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="J4" t="n">
         <v>12563.18241499341</v>
@@ -26447,7 +26447,7 @@
         <v>12563.18241499341</v>
       </c>
       <c r="L4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="M4" t="n">
         <v>12563.18241499341</v>
@@ -26456,10 +26456,10 @@
         <v>12563.18241499341</v>
       </c>
       <c r="O4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
       <c r="P4" t="n">
-        <v>12563.1824149934</v>
+        <v>12563.18241499341</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="H5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984472</v>
       </c>
       <c r="J5" t="n">
         <v>59310.17243984471</v>
@@ -26499,19 +26499,19 @@
         <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="M5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984473</v>
+        <v>59310.17243984471</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202980.4380465433</v>
+        <v>-189756.9998079289</v>
       </c>
       <c r="C6" t="n">
-        <v>23256.65883216039</v>
+        <v>36480.09707077479</v>
       </c>
       <c r="D6" t="n">
-        <v>-249159.7828302771</v>
+        <v>17765.34212314055</v>
       </c>
       <c r="E6" t="n">
-        <v>-262086.5954730443</v>
+        <v>-544490.6855898291</v>
       </c>
       <c r="F6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.784793135</v>
       </c>
       <c r="G6" t="n">
-        <v>182975.0683434323</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="H6" t="n">
-        <v>182975.0683434326</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="I6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="J6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.7847931351</v>
       </c>
       <c r="K6" t="n">
-        <v>182975.0683434323</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="L6" t="n">
-        <v>135514.0299619213</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="M6" t="n">
-        <v>70070.89226896994</v>
+        <v>28043.48229447672</v>
       </c>
       <c r="N6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="O6" t="n">
-        <v>182975.0683434323</v>
+        <v>187679.7847931349</v>
       </c>
       <c r="P6" t="n">
-        <v>182975.0683434324</v>
+        <v>187679.7847931349</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129048</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="G3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="I3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="J3" t="n">
         <v>934.0648921175391</v>
@@ -26767,7 +26767,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="L3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="M3" t="n">
         <v>934.0648921175391</v>
@@ -26776,10 +26776,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="O3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>640.5848321000389</v>
@@ -26804,10 +26804,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="H4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
@@ -26819,19 +26819,19 @@
         <v>640.5848321000387</v>
       </c>
       <c r="L4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="N4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="N4" t="n">
-        <v>640.5848321000386</v>
-      </c>
       <c r="O4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
     </row>
   </sheetData>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>313.6899027869106</v>
+        <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>385.5949512046343</v>
+        <v>673.2684996000745</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.0592449337187</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.0592449337185</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.0592449337187</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31302,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31317,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31387,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31454,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31466,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043123</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470275</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622681</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619225</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924584</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590852</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975331</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R9" t="n">
-        <v>73.2466083355008</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820371</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620019</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639163</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114197</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784863</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647912</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181396</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T11" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
         <v>0.3004027793744847</v>
@@ -31834,10 +31834,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31846,34 +31846,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R12" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31931,10 +31931,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31943,16 +31943,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I14" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T14" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U14" t="n">
         <v>0.3004027793744847</v>
@@ -32071,10 +32071,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
@@ -32083,34 +32083,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R15" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
@@ -32168,10 +32168,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P16" t="n">
         <v>203.7180217169137</v>
@@ -32180,16 +32180,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H20" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I20" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J20" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L20" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q20" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R20" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T20" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U20" t="n">
         <v>0.3004027793744847</v>
@@ -32545,10 +32545,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H21" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J21" t="n">
         <v>189.8178475575841</v>
@@ -32557,34 +32557,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M21" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N21" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P21" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R21" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J22" t="n">
         <v>119.0856174753787</v>
@@ -32642,10 +32642,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N22" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O22" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P22" t="n">
         <v>203.7180217169137</v>
@@ -32654,16 +32654,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R22" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S22" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H23" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I23" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J23" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K23" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L23" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N23" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O23" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P23" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q23" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R23" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S23" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T23" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U23" t="n">
         <v>0.3004027793744847</v>
@@ -32782,10 +32782,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H24" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I24" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J24" t="n">
         <v>189.8178475575841</v>
@@ -32794,34 +32794,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M24" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N24" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O24" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P24" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q24" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R24" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S24" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T24" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
@@ -32879,10 +32879,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N25" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O25" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P25" t="n">
         <v>203.7180217169137</v>
@@ -32891,16 +32891,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R25" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S25" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T25" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33414,43 +33414,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H32" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I32" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J32" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K32" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L32" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M32" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N32" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O32" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P32" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q32" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R32" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S32" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T32" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U32" t="n">
         <v>0.3004027793744847</v>
@@ -33493,10 +33493,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H33" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I33" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J33" t="n">
         <v>189.8178475575841</v>
@@ -33505,7 +33505,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L33" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M33" t="n">
         <v>509.0653662040588</v>
@@ -33514,25 +33514,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O33" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P33" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q33" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R33" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S33" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T33" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I34" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J34" t="n">
         <v>119.0856174753787</v>
@@ -33590,10 +33590,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N34" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O34" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P34" t="n">
         <v>203.7180217169137</v>
@@ -33605,13 +33605,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S34" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T34" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H41" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I41" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J41" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K41" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L41" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M41" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N41" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O41" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P41" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q41" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R41" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S41" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T41" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U41" t="n">
         <v>0.3004027793744847</v>
@@ -34204,10 +34204,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H42" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I42" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J42" t="n">
         <v>189.8178475575841</v>
@@ -34216,34 +34216,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L42" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M42" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N42" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O42" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P42" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q42" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R42" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S42" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T42" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,7 +34286,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I43" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J43" t="n">
         <v>119.0856174753787</v>
@@ -34301,10 +34301,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N43" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O43" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P43" t="n">
         <v>203.7180217169137</v>
@@ -34313,16 +34313,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R43" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S43" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T43" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H44" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I44" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J44" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L44" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R44" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T44" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U44" t="n">
         <v>0.3004027793744847</v>
@@ -34441,10 +34441,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H45" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J45" t="n">
         <v>189.8178475575841</v>
@@ -34453,34 +34453,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O45" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R45" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S45" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T45" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,7 +34523,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J46" t="n">
         <v>119.0856174753787</v>
@@ -34538,10 +34538,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N46" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O46" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P46" t="n">
         <v>203.7180217169137</v>
@@ -34550,16 +34550,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S46" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T46" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868137</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788344</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197548</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405814</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916001</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065984</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781475</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996322</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855702</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765002</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062405</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880153</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400581</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>98.86065188594098</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P11" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K12" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378501</v>
+        <v>592.5148541563233</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N12" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O12" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R12" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K13" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M13" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P13" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
-        <v>355.3309544215495</v>
+        <v>316.0205096502335</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O15" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R15" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K16" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M16" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K18" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L18" t="n">
-        <v>352.6335057535151</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N18" t="n">
         <v>391.197099592874</v>
@@ -35983,7 +35983,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P20" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L21" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N21" t="n">
-        <v>553.2044093850075</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O21" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P21" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R21" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K22" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L22" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M22" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N22" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O22" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P22" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L23" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N23" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O23" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P23" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K24" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N24" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O24" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750467</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K25" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L25" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M25" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N25" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O25" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P25" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>189.0712562313262</v>
+        <v>63.93583437922432</v>
       </c>
       <c r="K30" t="n">
         <v>186.5874962434848</v>
@@ -36925,10 +36925,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O30" t="n">
-        <v>528.7520287839581</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q30" t="n">
         <v>326.5580100667036</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K32" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L32" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M32" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N32" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O32" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P32" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R32" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K33" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L33" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M33" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N33" t="n">
         <v>391.1970995928739</v>
@@ -37165,10 +37165,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P33" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K34" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L34" t="n">
         <v>278.0112915831069</v>
@@ -37238,7 +37238,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N34" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O34" t="n">
         <v>262.6644876295069</v>
@@ -37247,7 +37247,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q34" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378501</v>
@@ -37402,7 +37402,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q36" t="n">
         <v>326.5580100667036</v>
@@ -37624,7 +37624,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K39" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378501</v>
@@ -37642,10 +37642,10 @@
         <v>568.1422977634694</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308545</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L41" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M41" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N41" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O41" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P41" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q41" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R41" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K42" t="n">
-        <v>379.9148430313194</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L42" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N42" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O42" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P42" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q42" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K43" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L43" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M43" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N43" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O43" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P43" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P44" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K45" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L45" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N45" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O45" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q45" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K46" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L46" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M46" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N46" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O46" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P46" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
